--- a/Code/Results/Cases/Case_3_236/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_236/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9991295690873288</v>
+        <v>1.035139555456449</v>
       </c>
       <c r="D2">
-        <v>1.023843899550064</v>
+        <v>1.044580604364526</v>
       </c>
       <c r="E2">
-        <v>1.005472613998211</v>
+        <v>1.034206980081355</v>
       </c>
       <c r="F2">
-        <v>1.030430618288849</v>
+        <v>1.055109735890809</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049879532192232</v>
+        <v>1.039309114280873</v>
       </c>
       <c r="J2">
-        <v>1.021336345799705</v>
+        <v>1.040254962063045</v>
       </c>
       <c r="K2">
-        <v>1.03498075223924</v>
+        <v>1.04735125367426</v>
       </c>
       <c r="L2">
-        <v>1.01685622951978</v>
+        <v>1.037007118210116</v>
       </c>
       <c r="M2">
-        <v>1.041481680223243</v>
+        <v>1.057851097053617</v>
       </c>
       <c r="N2">
-        <v>1.010465639209804</v>
+        <v>1.01728512677642</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.005158029099208</v>
+        <v>1.036370131472121</v>
       </c>
       <c r="D3">
-        <v>1.02859784464983</v>
+        <v>1.045557119118181</v>
       </c>
       <c r="E3">
-        <v>1.010406840337177</v>
+        <v>1.035261092962709</v>
       </c>
       <c r="F3">
-        <v>1.03577231279913</v>
+        <v>1.0562312821505</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051927210457351</v>
+        <v>1.03962524413423</v>
       </c>
       <c r="J3">
-        <v>1.02550906190353</v>
+        <v>1.041127542890279</v>
       </c>
       <c r="K3">
-        <v>1.038877433218238</v>
+        <v>1.048138604227128</v>
       </c>
       <c r="L3">
-        <v>1.020908273104508</v>
+        <v>1.037869718098207</v>
       </c>
       <c r="M3">
-        <v>1.045967059384398</v>
+        <v>1.058785233101543</v>
       </c>
       <c r="N3">
-        <v>1.011910321515374</v>
+        <v>1.017581686209386</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008960077570529</v>
+        <v>1.037166021957374</v>
       </c>
       <c r="D4">
-        <v>1.031597350750466</v>
+        <v>1.046188371854336</v>
       </c>
       <c r="E4">
-        <v>1.013525060360145</v>
+        <v>1.035943168612179</v>
       </c>
       <c r="F4">
-        <v>1.039145120622118</v>
+        <v>1.056956648957779</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053204285034095</v>
+        <v>1.039827900192209</v>
       </c>
       <c r="J4">
-        <v>1.028137327887308</v>
+        <v>1.041691300690423</v>
       </c>
       <c r="K4">
-        <v>1.041328812821823</v>
+        <v>1.048646841340944</v>
       </c>
       <c r="L4">
-        <v>1.023462945036672</v>
+        <v>1.038427277039346</v>
       </c>
       <c r="M4">
-        <v>1.048792983814167</v>
+        <v>1.059388746635347</v>
       </c>
       <c r="N4">
-        <v>1.012819498636721</v>
+        <v>1.017773103647507</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.010535904410863</v>
+        <v>1.037500526940488</v>
       </c>
       <c r="D5">
-        <v>1.032840769747337</v>
+        <v>1.046453603599611</v>
       </c>
       <c r="E5">
-        <v>1.014818901035812</v>
+        <v>1.036229912989397</v>
       </c>
       <c r="F5">
-        <v>1.040543889215678</v>
+        <v>1.057261510876728</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05373008285133</v>
+        <v>1.03991264206607</v>
       </c>
       <c r="J5">
-        <v>1.029225791530129</v>
+        <v>1.041928099738918</v>
       </c>
       <c r="K5">
-        <v>1.042343275083214</v>
+        <v>1.048860210380778</v>
       </c>
       <c r="L5">
-        <v>1.024521505218509</v>
+        <v>1.038661532087075</v>
       </c>
       <c r="M5">
-        <v>1.049963456345538</v>
+        <v>1.059642240933073</v>
       </c>
       <c r="N5">
-        <v>1.013195823372962</v>
+        <v>1.017853461836531</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.010799200434317</v>
+        <v>1.037556686741268</v>
       </c>
       <c r="D6">
-        <v>1.033048536164921</v>
+        <v>1.046498128589631</v>
       </c>
       <c r="E6">
-        <v>1.015035164229359</v>
+        <v>1.036278058653024</v>
       </c>
       <c r="F6">
-        <v>1.040777649053929</v>
+        <v>1.05731269374298</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05381772735749</v>
+        <v>1.039926843945142</v>
       </c>
       <c r="J6">
-        <v>1.029407604235242</v>
+        <v>1.041967847371469</v>
       </c>
       <c r="K6">
-        <v>1.042512682399556</v>
+        <v>1.048896018777614</v>
       </c>
       <c r="L6">
-        <v>1.024698356634654</v>
+        <v>1.038700856202932</v>
       </c>
       <c r="M6">
-        <v>1.050158975761656</v>
+        <v>1.059684790706471</v>
       </c>
       <c r="N6">
-        <v>1.013258671112587</v>
+        <v>1.017866947672264</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008981221079767</v>
+        <v>1.037170491969827</v>
       </c>
       <c r="D7">
-        <v>1.031614033447353</v>
+        <v>1.046191916469965</v>
       </c>
       <c r="E7">
-        <v>1.013542414746008</v>
+        <v>1.035947000104005</v>
       </c>
       <c r="F7">
-        <v>1.039163885224058</v>
+        <v>1.056960722859545</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053211353832568</v>
+        <v>1.039829034303589</v>
       </c>
       <c r="J7">
-        <v>1.028151935747846</v>
+        <v>1.04169446561382</v>
       </c>
       <c r="K7">
-        <v>1.041342430516929</v>
+        <v>1.048649693541942</v>
       </c>
       <c r="L7">
-        <v>1.023477149306768</v>
+        <v>1.038430407726211</v>
       </c>
       <c r="M7">
-        <v>1.048808691715606</v>
+        <v>1.059392134712705</v>
       </c>
       <c r="N7">
-        <v>1.012824549954044</v>
+        <v>1.017774177843915</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.001188046732736</v>
+        <v>1.035555513292803</v>
       </c>
       <c r="D8">
-        <v>1.025466859884638</v>
+        <v>1.044910750552875</v>
       </c>
       <c r="E8">
-        <v>1.007156087890953</v>
+        <v>1.034563224392717</v>
       </c>
       <c r="F8">
-        <v>1.032253720409526</v>
+        <v>1.055488840593178</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050581715213622</v>
+        <v>1.039416345718166</v>
       </c>
       <c r="J8">
-        <v>1.022761842322304</v>
+        <v>1.040550033725438</v>
       </c>
       <c r="K8">
-        <v>1.036312571536371</v>
+        <v>1.047617598007954</v>
       </c>
       <c r="L8">
-        <v>1.018239990138729</v>
+        <v>1.037298762968958</v>
       </c>
       <c r="M8">
-        <v>1.043013823802762</v>
+        <v>1.058166986920434</v>
       </c>
       <c r="N8">
-        <v>1.010959334083583</v>
+        <v>1.017385449258664</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9866458603594798</v>
+        <v>1.032706744124424</v>
       </c>
       <c r="D9">
-        <v>1.014010644784436</v>
+        <v>1.042648398916056</v>
       </c>
       <c r="E9">
-        <v>0.9952932032549902</v>
+        <v>1.032124736374104</v>
       </c>
       <c r="F9">
-        <v>1.019394851842367</v>
+        <v>1.052892472589973</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045562254367774</v>
+        <v>1.038674557405657</v>
       </c>
       <c r="J9">
-        <v>1.012679163924802</v>
+        <v>1.038526753326217</v>
       </c>
       <c r="K9">
-        <v>1.026880426487963</v>
+        <v>1.04578944020567</v>
       </c>
       <c r="L9">
-        <v>1.008463109352805</v>
+        <v>1.035300007799772</v>
       </c>
       <c r="M9">
-        <v>1.032180907488989</v>
+        <v>1.056000912052863</v>
       </c>
       <c r="N9">
-        <v>1.007464510343316</v>
+        <v>1.016696796314646</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9763251853021377</v>
+        <v>1.030805422045235</v>
       </c>
       <c r="D10">
-        <v>1.005896492666495</v>
+        <v>1.041136890974214</v>
       </c>
       <c r="E10">
-        <v>0.9869162810031844</v>
+        <v>1.030498934019153</v>
       </c>
       <c r="F10">
-        <v>1.0102996810479</v>
+        <v>1.051159651495331</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041927895947878</v>
+        <v>1.038170202935204</v>
       </c>
       <c r="J10">
-        <v>1.005510653803902</v>
+        <v>1.037173351056334</v>
       </c>
       <c r="K10">
-        <v>1.020160094043875</v>
+        <v>1.044564235885082</v>
       </c>
       <c r="L10">
-        <v>1.001525853754188</v>
+        <v>1.033964303083939</v>
       </c>
       <c r="M10">
-        <v>1.02448542880263</v>
+        <v>1.054551946667423</v>
       </c>
       <c r="N10">
-        <v>1.004976692237703</v>
+        <v>1.016235208868961</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9716871603424251</v>
+        <v>1.029981587245481</v>
       </c>
       <c r="D11">
-        <v>1.002255565864963</v>
+        <v>1.040481599665299</v>
       </c>
       <c r="E11">
-        <v>0.9831631510821257</v>
+        <v>1.029794891465436</v>
       </c>
       <c r="F11">
-        <v>1.006221364065342</v>
+        <v>1.050408849608929</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040278621126189</v>
+        <v>1.037949473912958</v>
       </c>
       <c r="J11">
-        <v>1.002287135368009</v>
+        <v>1.036586215274754</v>
       </c>
       <c r="K11">
-        <v>1.017135070508575</v>
+        <v>1.044032168310862</v>
       </c>
       <c r="L11">
-        <v>0.9984097274048429</v>
+        <v>1.033385151855425</v>
       </c>
       <c r="M11">
-        <v>1.021026900600797</v>
+        <v>1.053923346385824</v>
       </c>
       <c r="N11">
-        <v>1.003857436008039</v>
+        <v>1.016034741600638</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9699370166357438</v>
+        <v>1.029675492764137</v>
       </c>
       <c r="D12">
-        <v>1.000882651393671</v>
+        <v>1.040238073915556</v>
       </c>
       <c r="E12">
-        <v>0.9817487580023807</v>
+        <v>1.029533368129133</v>
       </c>
       <c r="F12">
-        <v>1.004683927937689</v>
+        <v>1.050129894700071</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039653963889778</v>
+        <v>1.037867133075933</v>
       </c>
       <c r="J12">
-        <v>1.00107053450694</v>
+        <v>1.036367959372184</v>
       </c>
       <c r="K12">
-        <v>1.015992960710491</v>
+        <v>1.043834301058768</v>
       </c>
       <c r="L12">
-        <v>0.9972341802126735</v>
+        <v>1.0331699102126</v>
       </c>
       <c r="M12">
-        <v>1.019721938108344</v>
+        <v>1.053689676132999</v>
       </c>
       <c r="N12">
-        <v>1.003434949401318</v>
+        <v>1.015960188963921</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9703137010050483</v>
+        <v>1.029741154988587</v>
       </c>
       <c r="D13">
-        <v>1.001178097830132</v>
+        <v>1.040290316531385</v>
       </c>
       <c r="E13">
-        <v>0.9820530934187783</v>
+        <v>1.029589466278245</v>
       </c>
       <c r="F13">
-        <v>1.005014760618566</v>
+        <v>1.050189734835715</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039788511782581</v>
+        <v>1.037884811415725</v>
       </c>
       <c r="J13">
-        <v>1.001332392397589</v>
+        <v>1.036414783612987</v>
       </c>
       <c r="K13">
-        <v>1.016238803918974</v>
+        <v>1.043876754852322</v>
       </c>
       <c r="L13">
-        <v>0.9974871780412369</v>
+        <v>1.033216085689885</v>
       </c>
       <c r="M13">
-        <v>1.020002798933899</v>
+        <v>1.053739807370935</v>
       </c>
       <c r="N13">
-        <v>1.003525886864645</v>
+        <v>1.015976184845838</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9715430634596803</v>
+        <v>1.029956287142604</v>
       </c>
       <c r="D14">
-        <v>1.002142507142279</v>
+        <v>1.040461472235307</v>
       </c>
       <c r="E14">
-        <v>0.9830466599109114</v>
+        <v>1.029773274090424</v>
       </c>
       <c r="F14">
-        <v>1.006094748855651</v>
+        <v>1.050385792621676</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04022723666894</v>
+        <v>1.037942674783323</v>
       </c>
       <c r="J14">
-        <v>1.00218697121436</v>
+        <v>1.036568177601313</v>
       </c>
       <c r="K14">
-        <v>1.017041047690881</v>
+        <v>1.044015817316864</v>
       </c>
       <c r="L14">
-        <v>0.9983129325747505</v>
+        <v>1.033367362352547</v>
       </c>
       <c r="M14">
-        <v>1.020919454500049</v>
+        <v>1.053904034813112</v>
       </c>
       <c r="N14">
-        <v>1.003822653386482</v>
+        <v>1.0160285808987</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9722968244962572</v>
+        <v>1.030088825737431</v>
       </c>
       <c r="D15">
-        <v>1.002733950366808</v>
+        <v>1.040566910786204</v>
       </c>
       <c r="E15">
-        <v>0.9836560929310793</v>
+        <v>1.0298865226976</v>
       </c>
       <c r="F15">
-        <v>1.006757126584481</v>
+        <v>1.05050658048255</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040495931944332</v>
+        <v>1.037978279617395</v>
       </c>
       <c r="J15">
-        <v>1.002710914867671</v>
+        <v>1.036662666449129</v>
       </c>
       <c r="K15">
-        <v>1.017532849900798</v>
+        <v>1.044101467286212</v>
       </c>
       <c r="L15">
-        <v>0.9988192731286858</v>
+        <v>1.033460553069734</v>
       </c>
       <c r="M15">
-        <v>1.021481502779634</v>
+        <v>1.054005196846836</v>
       </c>
       <c r="N15">
-        <v>1.004004593574172</v>
+        <v>1.0160608518732</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9766292693999218</v>
+        <v>1.030860085412159</v>
       </c>
       <c r="D16">
-        <v>1.006135330383609</v>
+        <v>1.041180363557111</v>
       </c>
       <c r="E16">
-        <v>0.9871625953349773</v>
+        <v>1.030545657611716</v>
       </c>
       <c r="F16">
-        <v>1.010567267909007</v>
+        <v>1.051209469508187</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042035703356855</v>
+        <v>1.038184802631745</v>
       </c>
       <c r="J16">
-        <v>1.005721963198132</v>
+        <v>1.037212293925088</v>
       </c>
       <c r="K16">
-        <v>1.020358331258268</v>
+        <v>1.044599514766187</v>
       </c>
       <c r="L16">
-        <v>1.001730194858125</v>
+        <v>1.034002722828857</v>
       </c>
       <c r="M16">
-        <v>1.024712187566609</v>
+        <v>1.054593639622848</v>
       </c>
       <c r="N16">
-        <v>1.005050052417681</v>
+        <v>1.016248500603927</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9793002954200457</v>
+        <v>1.031343726951055</v>
       </c>
       <c r="D17">
-        <v>1.008233883106065</v>
+        <v>1.041564951513098</v>
       </c>
       <c r="E17">
-        <v>0.9893274852251248</v>
+        <v>1.030959098455713</v>
       </c>
       <c r="F17">
-        <v>1.012918742132746</v>
+        <v>1.05165024380249</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042980862535524</v>
+        <v>1.03831372205781</v>
       </c>
       <c r="J17">
-        <v>1.007577849168158</v>
+        <v>1.037556764026669</v>
       </c>
       <c r="K17">
-        <v>1.022099066499184</v>
+        <v>1.044911511898722</v>
       </c>
       <c r="L17">
-        <v>1.003525266269162</v>
+        <v>1.034342601057621</v>
       </c>
       <c r="M17">
-        <v>1.026703988115272</v>
+        <v>1.054962434902089</v>
       </c>
       <c r="N17">
-        <v>1.00569430031215</v>
+        <v>1.01636604754956</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9808420867514733</v>
+        <v>1.031625774032461</v>
       </c>
       <c r="D18">
-        <v>1.00944573579148</v>
+        <v>1.041789198226042</v>
       </c>
       <c r="E18">
-        <v>0.9905781863347728</v>
+        <v>1.031200245887152</v>
       </c>
       <c r="F18">
-        <v>1.014276915425604</v>
+        <v>1.051907293899747</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043524916140418</v>
+        <v>1.038388692827321</v>
       </c>
       <c r="J18">
-        <v>1.008648918978076</v>
+        <v>1.03775758123857</v>
       </c>
       <c r="K18">
-        <v>1.023103391386108</v>
+        <v>1.045093345474934</v>
       </c>
       <c r="L18">
-        <v>1.004561558865167</v>
+        <v>1.034540770907229</v>
       </c>
       <c r="M18">
-        <v>1.027853678716402</v>
+        <v>1.055177432361031</v>
       </c>
       <c r="N18">
-        <v>1.006066056832874</v>
+        <v>1.016434553140103</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9813651110957736</v>
+        <v>1.031721935923698</v>
       </c>
       <c r="D19">
-        <v>1.009856916605868</v>
+        <v>1.041865647553199</v>
       </c>
       <c r="E19">
-        <v>0.9910026408603012</v>
+        <v>1.03128247002615</v>
       </c>
       <c r="F19">
-        <v>1.014737788197657</v>
+        <v>1.05199493357318</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043709215864191</v>
+        <v>1.038414217650723</v>
       </c>
       <c r="J19">
-        <v>1.00901222322954</v>
+        <v>1.03782603672739</v>
       </c>
       <c r="K19">
-        <v>1.023444005943052</v>
+        <v>1.04515532078168</v>
       </c>
       <c r="L19">
-        <v>1.004913120756134</v>
+        <v>1.034608328967293</v>
       </c>
       <c r="M19">
-        <v>1.028243680628749</v>
+        <v>1.055250721548034</v>
       </c>
       <c r="N19">
-        <v>1.00619214638632</v>
+        <v>1.016457902028773</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9790154060393081</v>
+        <v>1.031291842279773</v>
       </c>
       <c r="D20">
-        <v>1.008009999353162</v>
+        <v>1.04152369683418</v>
       </c>
       <c r="E20">
-        <v>0.9890964683457234</v>
+        <v>1.030914740759994</v>
       </c>
       <c r="F20">
-        <v>1.0126678479763</v>
+        <v>1.051602957673008</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042880209712566</v>
+        <v>1.038299913579164</v>
       </c>
       <c r="J20">
-        <v>1.007379922058395</v>
+        <v>1.037519816660526</v>
       </c>
       <c r="K20">
-        <v>1.021913449816569</v>
+        <v>1.044878052989321</v>
       </c>
       <c r="L20">
-        <v>1.00333379160687</v>
+        <v>1.034306143148393</v>
       </c>
       <c r="M20">
-        <v>1.026491546798334</v>
+        <v>1.054922878523257</v>
       </c>
       <c r="N20">
-        <v>1.005625597654441</v>
+        <v>1.016353441831746</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9711818193652816</v>
+        <v>1.029892938470814</v>
       </c>
       <c r="D21">
-        <v>1.001859090515618</v>
+        <v>1.040411074508702</v>
       </c>
       <c r="E21">
-        <v>0.9827546520694248</v>
+        <v>1.029719147576581</v>
       </c>
       <c r="F21">
-        <v>1.005777355238579</v>
+        <v>1.050328060537437</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040098381453281</v>
+        <v>1.037925645192938</v>
       </c>
       <c r="J21">
-        <v>1.001935861239797</v>
+        <v>1.036523011533514</v>
       </c>
       <c r="K21">
-        <v>1.016805327249093</v>
+        <v>1.043974873348628</v>
       </c>
       <c r="L21">
-        <v>0.9980702778885562</v>
+        <v>1.033322818445917</v>
       </c>
       <c r="M21">
-        <v>1.020650094321523</v>
+        <v>1.053855678909187</v>
       </c>
       <c r="N21">
-        <v>1.00373545293188</v>
+        <v>1.016013154060132</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9660970218926529</v>
+        <v>1.029012895654942</v>
       </c>
       <c r="D22">
-        <v>0.9978723145184599</v>
+        <v>1.039710821703763</v>
       </c>
       <c r="E22">
-        <v>0.9786489717626246</v>
+        <v>1.028967368622809</v>
       </c>
       <c r="F22">
-        <v>1.001313588924054</v>
+        <v>1.049526055086346</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038279264552158</v>
+        <v>1.037688289461032</v>
       </c>
       <c r="J22">
-        <v>0.9984008961969056</v>
+        <v>1.035895310446622</v>
       </c>
       <c r="K22">
-        <v>1.013486039439239</v>
+        <v>1.043405655851826</v>
       </c>
       <c r="L22">
-        <v>0.9946556036785079</v>
+        <v>1.032703873380533</v>
       </c>
       <c r="M22">
-        <v>1.016859068198661</v>
+        <v>1.053183645270952</v>
       </c>
       <c r="N22">
-        <v>1.002507772160301</v>
+        <v>1.015798679703257</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9688084010997621</v>
+        <v>1.029479471052198</v>
       </c>
       <c r="D23">
-        <v>0.9999975951601745</v>
+        <v>1.040082106081364</v>
       </c>
       <c r="E23">
-        <v>0.9808371930604397</v>
+        <v>1.029365907310358</v>
       </c>
       <c r="F23">
-        <v>1.00369292554102</v>
+        <v>1.049951254400667</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03925050333741</v>
+        <v>1.037814309659155</v>
       </c>
       <c r="J23">
-        <v>1.000285935890458</v>
+        <v>1.036228159203651</v>
       </c>
       <c r="K23">
-        <v>1.015256287090936</v>
+        <v>1.043707537496805</v>
       </c>
       <c r="L23">
-        <v>0.9964762062933434</v>
+        <v>1.033032053779448</v>
       </c>
       <c r="M23">
-        <v>1.018880453771491</v>
+        <v>1.053540002385444</v>
       </c>
       <c r="N23">
-        <v>1.003162467690291</v>
+        <v>1.015912426257183</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9791441851211168</v>
+        <v>1.031315286892625</v>
       </c>
       <c r="D24">
-        <v>1.00811120037764</v>
+        <v>1.041542338285598</v>
       </c>
       <c r="E24">
-        <v>0.9892008920409845</v>
+        <v>1.030934784110763</v>
       </c>
       <c r="F24">
-        <v>1.012781257548949</v>
+        <v>1.051624324382013</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042925712718836</v>
+        <v>1.038306153733853</v>
       </c>
       <c r="J24">
-        <v>1.00746939204837</v>
+        <v>1.037536511913601</v>
       </c>
       <c r="K24">
-        <v>1.021997355961858</v>
+        <v>1.044893172090919</v>
       </c>
       <c r="L24">
-        <v>1.003420343871622</v>
+        <v>1.034322617141186</v>
       </c>
       <c r="M24">
-        <v>1.026587577157573</v>
+        <v>1.054940752702292</v>
       </c>
       <c r="N24">
-        <v>1.005656653826557</v>
+        <v>1.016359137990878</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9905092486206915</v>
+        <v>1.033443586193899</v>
       </c>
       <c r="D25">
-        <v>1.017051878439711</v>
+        <v>1.043233843285439</v>
       </c>
       <c r="E25">
-        <v>0.9984379759644715</v>
+        <v>1.03275516358749</v>
       </c>
       <c r="F25">
-        <v>1.022806263042319</v>
+        <v>1.053564026678776</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046908413864442</v>
+        <v>1.038868057853607</v>
       </c>
       <c r="J25">
-        <v>1.015360290938694</v>
+        <v>1.039050615584411</v>
       </c>
       <c r="K25">
-        <v>1.029391129746604</v>
+        <v>1.046263191929202</v>
       </c>
       <c r="L25">
-        <v>1.011060588836566</v>
+        <v>1.035817292773379</v>
       </c>
       <c r="M25">
-        <v>1.035060564348365</v>
+        <v>1.056561755591769</v>
       </c>
       <c r="N25">
-        <v>1.008394422814137</v>
+        <v>1.016875266043119</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_236/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_236/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035139555456449</v>
+        <v>0.999129569087327</v>
       </c>
       <c r="D2">
-        <v>1.044580604364526</v>
+        <v>1.023843899550063</v>
       </c>
       <c r="E2">
-        <v>1.034206980081355</v>
+        <v>1.00547261399821</v>
       </c>
       <c r="F2">
-        <v>1.055109735890809</v>
+        <v>1.030430618288847</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039309114280873</v>
+        <v>1.049879532192231</v>
       </c>
       <c r="J2">
-        <v>1.040254962063045</v>
+        <v>1.021336345799704</v>
       </c>
       <c r="K2">
-        <v>1.04735125367426</v>
+        <v>1.034980752239238</v>
       </c>
       <c r="L2">
-        <v>1.037007118210116</v>
+        <v>1.016856229519779</v>
       </c>
       <c r="M2">
-        <v>1.057851097053617</v>
+        <v>1.041481680223242</v>
       </c>
       <c r="N2">
-        <v>1.01728512677642</v>
+        <v>1.010465639209803</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036370131472121</v>
+        <v>1.005158029099207</v>
       </c>
       <c r="D3">
-        <v>1.045557119118181</v>
+        <v>1.028597844649829</v>
       </c>
       <c r="E3">
-        <v>1.035261092962709</v>
+        <v>1.010406840337176</v>
       </c>
       <c r="F3">
-        <v>1.0562312821505</v>
+        <v>1.035772312799129</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03962524413423</v>
+        <v>1.051927210457351</v>
       </c>
       <c r="J3">
-        <v>1.041127542890279</v>
+        <v>1.025509061903529</v>
       </c>
       <c r="K3">
-        <v>1.048138604227128</v>
+        <v>1.038877433218236</v>
       </c>
       <c r="L3">
-        <v>1.037869718098207</v>
+        <v>1.020908273104507</v>
       </c>
       <c r="M3">
-        <v>1.058785233101543</v>
+        <v>1.045967059384397</v>
       </c>
       <c r="N3">
-        <v>1.017581686209386</v>
+        <v>1.011910321515374</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037166021957374</v>
+        <v>1.008960077570529</v>
       </c>
       <c r="D4">
-        <v>1.046188371854336</v>
+        <v>1.031597350750465</v>
       </c>
       <c r="E4">
-        <v>1.035943168612179</v>
+        <v>1.013525060360144</v>
       </c>
       <c r="F4">
-        <v>1.056956648957779</v>
+        <v>1.039145120622117</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039827900192209</v>
+        <v>1.053204285034095</v>
       </c>
       <c r="J4">
-        <v>1.041691300690423</v>
+        <v>1.028137327887307</v>
       </c>
       <c r="K4">
-        <v>1.048646841340944</v>
+        <v>1.041328812821823</v>
       </c>
       <c r="L4">
-        <v>1.038427277039346</v>
+        <v>1.023462945036672</v>
       </c>
       <c r="M4">
-        <v>1.059388746635347</v>
+        <v>1.048792983814167</v>
       </c>
       <c r="N4">
-        <v>1.017773103647507</v>
+        <v>1.012819498636721</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037500526940488</v>
+        <v>1.010535904410864</v>
       </c>
       <c r="D5">
-        <v>1.046453603599611</v>
+        <v>1.032840769747337</v>
       </c>
       <c r="E5">
-        <v>1.036229912989397</v>
+        <v>1.014818901035812</v>
       </c>
       <c r="F5">
-        <v>1.057261510876728</v>
+        <v>1.040543889215678</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03991264206607</v>
+        <v>1.05373008285133</v>
       </c>
       <c r="J5">
-        <v>1.041928099738918</v>
+        <v>1.029225791530129</v>
       </c>
       <c r="K5">
-        <v>1.048860210380778</v>
+        <v>1.042343275083214</v>
       </c>
       <c r="L5">
-        <v>1.038661532087075</v>
+        <v>1.024521505218509</v>
       </c>
       <c r="M5">
-        <v>1.059642240933073</v>
+        <v>1.049963456345538</v>
       </c>
       <c r="N5">
-        <v>1.017853461836531</v>
+        <v>1.013195823372962</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037556686741268</v>
+        <v>1.010799200434317</v>
       </c>
       <c r="D6">
-        <v>1.046498128589631</v>
+        <v>1.033048536164922</v>
       </c>
       <c r="E6">
-        <v>1.036278058653024</v>
+        <v>1.01503516422936</v>
       </c>
       <c r="F6">
-        <v>1.05731269374298</v>
+        <v>1.04077764905393</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039926843945142</v>
+        <v>1.053817727357491</v>
       </c>
       <c r="J6">
-        <v>1.041967847371469</v>
+        <v>1.029407604235243</v>
       </c>
       <c r="K6">
-        <v>1.048896018777614</v>
+        <v>1.042512682399557</v>
       </c>
       <c r="L6">
-        <v>1.038700856202932</v>
+        <v>1.024698356634654</v>
       </c>
       <c r="M6">
-        <v>1.059684790706471</v>
+        <v>1.050158975761657</v>
       </c>
       <c r="N6">
-        <v>1.017866947672264</v>
+        <v>1.013258671112587</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037170491969827</v>
+        <v>1.008981221079767</v>
       </c>
       <c r="D7">
-        <v>1.046191916469965</v>
+        <v>1.031614033447353</v>
       </c>
       <c r="E7">
-        <v>1.035947000104005</v>
+        <v>1.013542414746008</v>
       </c>
       <c r="F7">
-        <v>1.056960722859545</v>
+        <v>1.039163885224058</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039829034303589</v>
+        <v>1.053211353832567</v>
       </c>
       <c r="J7">
-        <v>1.04169446561382</v>
+        <v>1.028151935747846</v>
       </c>
       <c r="K7">
-        <v>1.048649693541942</v>
+        <v>1.041342430516929</v>
       </c>
       <c r="L7">
-        <v>1.038430407726211</v>
+        <v>1.023477149306768</v>
       </c>
       <c r="M7">
-        <v>1.059392134712705</v>
+        <v>1.048808691715606</v>
       </c>
       <c r="N7">
-        <v>1.017774177843915</v>
+        <v>1.012824549954044</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035555513292803</v>
+        <v>1.001188046732734</v>
       </c>
       <c r="D8">
-        <v>1.044910750552875</v>
+        <v>1.025466859884637</v>
       </c>
       <c r="E8">
-        <v>1.034563224392717</v>
+        <v>1.007156087890952</v>
       </c>
       <c r="F8">
-        <v>1.055488840593178</v>
+        <v>1.032253720409525</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039416345718166</v>
+        <v>1.050581715213621</v>
       </c>
       <c r="J8">
-        <v>1.040550033725438</v>
+        <v>1.022761842322303</v>
       </c>
       <c r="K8">
-        <v>1.047617598007954</v>
+        <v>1.036312571536371</v>
       </c>
       <c r="L8">
-        <v>1.037298762968958</v>
+        <v>1.018239990138728</v>
       </c>
       <c r="M8">
-        <v>1.058166986920434</v>
+        <v>1.04301382380276</v>
       </c>
       <c r="N8">
-        <v>1.017385449258664</v>
+        <v>1.010959334083583</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032706744124424</v>
+        <v>0.9866458603594792</v>
       </c>
       <c r="D9">
-        <v>1.042648398916056</v>
+        <v>1.014010644784435</v>
       </c>
       <c r="E9">
-        <v>1.032124736374104</v>
+        <v>0.9952932032549897</v>
       </c>
       <c r="F9">
-        <v>1.052892472589973</v>
+        <v>1.019394851842366</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038674557405657</v>
+        <v>1.045562254367774</v>
       </c>
       <c r="J9">
-        <v>1.038526753326217</v>
+        <v>1.012679163924802</v>
       </c>
       <c r="K9">
-        <v>1.04578944020567</v>
+        <v>1.026880426487963</v>
       </c>
       <c r="L9">
-        <v>1.035300007799772</v>
+        <v>1.008463109352804</v>
       </c>
       <c r="M9">
-        <v>1.056000912052863</v>
+        <v>1.032180907488989</v>
       </c>
       <c r="N9">
-        <v>1.016696796314646</v>
+        <v>1.007464510343316</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030805422045235</v>
+        <v>0.9763251853021387</v>
       </c>
       <c r="D10">
-        <v>1.041136890974214</v>
+        <v>1.005896492666495</v>
       </c>
       <c r="E10">
-        <v>1.030498934019153</v>
+        <v>0.9869162810031851</v>
       </c>
       <c r="F10">
-        <v>1.051159651495331</v>
+        <v>1.0102996810479</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038170202935204</v>
+        <v>1.041927895947879</v>
       </c>
       <c r="J10">
-        <v>1.037173351056334</v>
+        <v>1.005510653803903</v>
       </c>
       <c r="K10">
-        <v>1.044564235885082</v>
+        <v>1.020160094043876</v>
       </c>
       <c r="L10">
-        <v>1.033964303083939</v>
+        <v>1.001525853754189</v>
       </c>
       <c r="M10">
-        <v>1.054551946667423</v>
+        <v>1.024485428802631</v>
       </c>
       <c r="N10">
-        <v>1.016235208868961</v>
+        <v>1.004976692237704</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029981587245481</v>
+        <v>0.9716871603424247</v>
       </c>
       <c r="D11">
-        <v>1.040481599665299</v>
+        <v>1.002255565864963</v>
       </c>
       <c r="E11">
-        <v>1.029794891465436</v>
+        <v>0.9831631510821254</v>
       </c>
       <c r="F11">
-        <v>1.050408849608929</v>
+        <v>1.006221364065342</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037949473912958</v>
+        <v>1.040278621126189</v>
       </c>
       <c r="J11">
-        <v>1.036586215274754</v>
+        <v>1.002287135368009</v>
       </c>
       <c r="K11">
-        <v>1.044032168310862</v>
+        <v>1.017135070508575</v>
       </c>
       <c r="L11">
-        <v>1.033385151855425</v>
+        <v>0.9984097274048428</v>
       </c>
       <c r="M11">
-        <v>1.053923346385824</v>
+        <v>1.021026900600797</v>
       </c>
       <c r="N11">
-        <v>1.016034741600638</v>
+        <v>1.003857436008038</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029675492764137</v>
+        <v>0.9699370166357439</v>
       </c>
       <c r="D12">
-        <v>1.040238073915556</v>
+        <v>1.000882651393672</v>
       </c>
       <c r="E12">
-        <v>1.029533368129133</v>
+        <v>0.9817487580023804</v>
       </c>
       <c r="F12">
-        <v>1.050129894700071</v>
+        <v>1.004683927937689</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037867133075933</v>
+        <v>1.039653963889779</v>
       </c>
       <c r="J12">
-        <v>1.036367959372184</v>
+        <v>1.00107053450694</v>
       </c>
       <c r="K12">
-        <v>1.043834301058768</v>
+        <v>1.015992960710491</v>
       </c>
       <c r="L12">
-        <v>1.0331699102126</v>
+        <v>0.9972341802126734</v>
       </c>
       <c r="M12">
-        <v>1.053689676132999</v>
+        <v>1.019721938108344</v>
       </c>
       <c r="N12">
-        <v>1.015960188963921</v>
+        <v>1.003434949401318</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029741154988587</v>
+        <v>0.9703137010050467</v>
       </c>
       <c r="D13">
-        <v>1.040290316531385</v>
+        <v>1.001178097830131</v>
       </c>
       <c r="E13">
-        <v>1.029589466278245</v>
+        <v>0.9820530934187769</v>
       </c>
       <c r="F13">
-        <v>1.050189734835715</v>
+        <v>1.005014760618564</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037884811415725</v>
+        <v>1.039788511782581</v>
       </c>
       <c r="J13">
-        <v>1.036414783612987</v>
+        <v>1.001332392397587</v>
       </c>
       <c r="K13">
-        <v>1.043876754852322</v>
+        <v>1.016238803918972</v>
       </c>
       <c r="L13">
-        <v>1.033216085689885</v>
+        <v>0.9974871780412354</v>
       </c>
       <c r="M13">
-        <v>1.053739807370935</v>
+        <v>1.020002798933898</v>
       </c>
       <c r="N13">
-        <v>1.015976184845838</v>
+        <v>1.003525886864645</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029956287142604</v>
+        <v>0.9715430634596803</v>
       </c>
       <c r="D14">
-        <v>1.040461472235307</v>
+        <v>1.002142507142279</v>
       </c>
       <c r="E14">
-        <v>1.029773274090424</v>
+        <v>0.9830466599109113</v>
       </c>
       <c r="F14">
-        <v>1.050385792621676</v>
+        <v>1.006094748855652</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037942674783323</v>
+        <v>1.04022723666894</v>
       </c>
       <c r="J14">
-        <v>1.036568177601313</v>
+        <v>1.00218697121436</v>
       </c>
       <c r="K14">
-        <v>1.044015817316864</v>
+        <v>1.017041047690881</v>
       </c>
       <c r="L14">
-        <v>1.033367362352547</v>
+        <v>0.9983129325747504</v>
       </c>
       <c r="M14">
-        <v>1.053904034813112</v>
+        <v>1.020919454500049</v>
       </c>
       <c r="N14">
-        <v>1.0160285808987</v>
+        <v>1.003822653386482</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030088825737431</v>
+        <v>0.9722968244962577</v>
       </c>
       <c r="D15">
-        <v>1.040566910786204</v>
+        <v>1.002733950366808</v>
       </c>
       <c r="E15">
-        <v>1.0298865226976</v>
+        <v>0.9836560929310796</v>
       </c>
       <c r="F15">
-        <v>1.05050658048255</v>
+        <v>1.006757126584482</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037978279617395</v>
+        <v>1.040495931944333</v>
       </c>
       <c r="J15">
-        <v>1.036662666449129</v>
+        <v>1.002710914867671</v>
       </c>
       <c r="K15">
-        <v>1.044101467286212</v>
+        <v>1.017532849900799</v>
       </c>
       <c r="L15">
-        <v>1.033460553069734</v>
+        <v>0.998819273128686</v>
       </c>
       <c r="M15">
-        <v>1.054005196846836</v>
+        <v>1.021481502779634</v>
       </c>
       <c r="N15">
-        <v>1.0160608518732</v>
+        <v>1.004004593574173</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030860085412159</v>
+        <v>0.9766292693999212</v>
       </c>
       <c r="D16">
-        <v>1.041180363557111</v>
+        <v>1.006135330383609</v>
       </c>
       <c r="E16">
-        <v>1.030545657611716</v>
+        <v>0.9871625953349769</v>
       </c>
       <c r="F16">
-        <v>1.051209469508187</v>
+        <v>1.010567267909006</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038184802631745</v>
+        <v>1.042035703356855</v>
       </c>
       <c r="J16">
-        <v>1.037212293925088</v>
+        <v>1.005721963198132</v>
       </c>
       <c r="K16">
-        <v>1.044599514766187</v>
+        <v>1.020358331258267</v>
       </c>
       <c r="L16">
-        <v>1.034002722828857</v>
+        <v>1.001730194858124</v>
       </c>
       <c r="M16">
-        <v>1.054593639622848</v>
+        <v>1.024712187566608</v>
       </c>
       <c r="N16">
-        <v>1.016248500603927</v>
+        <v>1.00505005241768</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031343726951055</v>
+        <v>0.979300295420046</v>
       </c>
       <c r="D17">
-        <v>1.041564951513098</v>
+        <v>1.008233883106066</v>
       </c>
       <c r="E17">
-        <v>1.030959098455713</v>
+        <v>0.9893274852251249</v>
       </c>
       <c r="F17">
-        <v>1.05165024380249</v>
+        <v>1.012918742132746</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03831372205781</v>
+        <v>1.042980862535524</v>
       </c>
       <c r="J17">
-        <v>1.037556764026669</v>
+        <v>1.007577849168158</v>
       </c>
       <c r="K17">
-        <v>1.044911511898722</v>
+        <v>1.022099066499185</v>
       </c>
       <c r="L17">
-        <v>1.034342601057621</v>
+        <v>1.003525266269162</v>
       </c>
       <c r="M17">
-        <v>1.054962434902089</v>
+        <v>1.026703988115272</v>
       </c>
       <c r="N17">
-        <v>1.01636604754956</v>
+        <v>1.00569430031215</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031625774032461</v>
+        <v>0.9808420867514726</v>
       </c>
       <c r="D18">
-        <v>1.041789198226042</v>
+        <v>1.00944573579148</v>
       </c>
       <c r="E18">
-        <v>1.031200245887152</v>
+        <v>0.9905781863347719</v>
       </c>
       <c r="F18">
-        <v>1.051907293899747</v>
+        <v>1.014276915425603</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038388692827321</v>
+        <v>1.043524916140417</v>
       </c>
       <c r="J18">
-        <v>1.03775758123857</v>
+        <v>1.008648918978075</v>
       </c>
       <c r="K18">
-        <v>1.045093345474934</v>
+        <v>1.023103391386108</v>
       </c>
       <c r="L18">
-        <v>1.034540770907229</v>
+        <v>1.004561558865166</v>
       </c>
       <c r="M18">
-        <v>1.055177432361031</v>
+        <v>1.027853678716401</v>
       </c>
       <c r="N18">
-        <v>1.016434553140103</v>
+        <v>1.006066056832874</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031721935923698</v>
+        <v>0.9813651110957743</v>
       </c>
       <c r="D19">
-        <v>1.041865647553199</v>
+        <v>1.009856916605869</v>
       </c>
       <c r="E19">
-        <v>1.03128247002615</v>
+        <v>0.991002640860302</v>
       </c>
       <c r="F19">
-        <v>1.05199493357318</v>
+        <v>1.014737788197658</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038414217650723</v>
+        <v>1.043709215864192</v>
       </c>
       <c r="J19">
-        <v>1.03782603672739</v>
+        <v>1.009012223229541</v>
       </c>
       <c r="K19">
-        <v>1.04515532078168</v>
+        <v>1.023444005943052</v>
       </c>
       <c r="L19">
-        <v>1.034608328967293</v>
+        <v>1.004913120756135</v>
       </c>
       <c r="M19">
-        <v>1.055250721548034</v>
+        <v>1.02824368062875</v>
       </c>
       <c r="N19">
-        <v>1.016457902028773</v>
+        <v>1.00619214638632</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031291842279773</v>
+        <v>0.9790154060393088</v>
       </c>
       <c r="D20">
-        <v>1.04152369683418</v>
+        <v>1.008009999353163</v>
       </c>
       <c r="E20">
-        <v>1.030914740759994</v>
+        <v>0.9890964683457237</v>
       </c>
       <c r="F20">
-        <v>1.051602957673008</v>
+        <v>1.012667847976301</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038299913579164</v>
+        <v>1.042880209712567</v>
       </c>
       <c r="J20">
-        <v>1.037519816660526</v>
+        <v>1.007379922058396</v>
       </c>
       <c r="K20">
-        <v>1.044878052989321</v>
+        <v>1.02191344981657</v>
       </c>
       <c r="L20">
-        <v>1.034306143148393</v>
+        <v>1.00333379160687</v>
       </c>
       <c r="M20">
-        <v>1.054922878523257</v>
+        <v>1.026491546798336</v>
       </c>
       <c r="N20">
-        <v>1.016353441831746</v>
+        <v>1.005625597654441</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029892938470814</v>
+        <v>0.9711818193652808</v>
       </c>
       <c r="D21">
-        <v>1.040411074508702</v>
+        <v>1.001859090515617</v>
       </c>
       <c r="E21">
-        <v>1.029719147576581</v>
+        <v>0.9827546520694238</v>
       </c>
       <c r="F21">
-        <v>1.050328060537437</v>
+        <v>1.005777355238578</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037925645192938</v>
+        <v>1.040098381453281</v>
       </c>
       <c r="J21">
-        <v>1.036523011533514</v>
+        <v>1.001935861239797</v>
       </c>
       <c r="K21">
-        <v>1.043974873348628</v>
+        <v>1.016805327249093</v>
       </c>
       <c r="L21">
-        <v>1.033322818445917</v>
+        <v>0.9980702778885554</v>
       </c>
       <c r="M21">
-        <v>1.053855678909187</v>
+        <v>1.020650094321522</v>
       </c>
       <c r="N21">
-        <v>1.016013154060132</v>
+        <v>1.00373545293188</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029012895654942</v>
+        <v>0.9660970218926538</v>
       </c>
       <c r="D22">
-        <v>1.039710821703763</v>
+        <v>0.9978723145184603</v>
       </c>
       <c r="E22">
-        <v>1.028967368622809</v>
+        <v>0.9786489717626253</v>
       </c>
       <c r="F22">
-        <v>1.049526055086346</v>
+        <v>1.001313588924054</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037688289461032</v>
+        <v>1.038279264552159</v>
       </c>
       <c r="J22">
-        <v>1.035895310446622</v>
+        <v>0.9984008961969063</v>
       </c>
       <c r="K22">
-        <v>1.043405655851826</v>
+        <v>1.01348603943924</v>
       </c>
       <c r="L22">
-        <v>1.032703873380533</v>
+        <v>0.9946556036785085</v>
       </c>
       <c r="M22">
-        <v>1.053183645270952</v>
+        <v>1.016859068198661</v>
       </c>
       <c r="N22">
-        <v>1.015798679703257</v>
+        <v>1.002507772160301</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029479471052198</v>
+        <v>0.9688084010997626</v>
       </c>
       <c r="D23">
-        <v>1.040082106081364</v>
+        <v>0.9999975951601746</v>
       </c>
       <c r="E23">
-        <v>1.029365907310358</v>
+        <v>0.98083719306044</v>
       </c>
       <c r="F23">
-        <v>1.049951254400667</v>
+        <v>1.003692925541021</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037814309659155</v>
+        <v>1.03925050333741</v>
       </c>
       <c r="J23">
-        <v>1.036228159203651</v>
+        <v>1.000285935890459</v>
       </c>
       <c r="K23">
-        <v>1.043707537496805</v>
+        <v>1.015256287090936</v>
       </c>
       <c r="L23">
-        <v>1.033032053779448</v>
+        <v>0.9964762062933439</v>
       </c>
       <c r="M23">
-        <v>1.053540002385444</v>
+        <v>1.018880453771492</v>
       </c>
       <c r="N23">
-        <v>1.015912426257183</v>
+        <v>1.003162467690291</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.031315286892625</v>
+        <v>0.9791441851211174</v>
       </c>
       <c r="D24">
-        <v>1.041542338285598</v>
+        <v>1.008111200377641</v>
       </c>
       <c r="E24">
-        <v>1.030934784110763</v>
+        <v>0.9892008920409847</v>
       </c>
       <c r="F24">
-        <v>1.051624324382013</v>
+        <v>1.012781257548949</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038306153733853</v>
+        <v>1.042925712718837</v>
       </c>
       <c r="J24">
-        <v>1.037536511913601</v>
+        <v>1.007469392048371</v>
       </c>
       <c r="K24">
-        <v>1.044893172090919</v>
+        <v>1.021997355961858</v>
       </c>
       <c r="L24">
-        <v>1.034322617141186</v>
+        <v>1.003420343871623</v>
       </c>
       <c r="M24">
-        <v>1.054940752702292</v>
+        <v>1.026587577157573</v>
       </c>
       <c r="N24">
-        <v>1.016359137990878</v>
+        <v>1.005656653826557</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033443586193899</v>
+        <v>0.9905092486206902</v>
       </c>
       <c r="D25">
-        <v>1.043233843285439</v>
+        <v>1.01705187843971</v>
       </c>
       <c r="E25">
-        <v>1.03275516358749</v>
+        <v>0.9984379759644704</v>
       </c>
       <c r="F25">
-        <v>1.053564026678776</v>
+        <v>1.022806263042318</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038868057853607</v>
+        <v>1.046908413864441</v>
       </c>
       <c r="J25">
-        <v>1.039050615584411</v>
+        <v>1.015360290938693</v>
       </c>
       <c r="K25">
-        <v>1.046263191929202</v>
+        <v>1.029391129746603</v>
       </c>
       <c r="L25">
-        <v>1.035817292773379</v>
+        <v>1.011060588836564</v>
       </c>
       <c r="M25">
-        <v>1.056561755591769</v>
+        <v>1.035060564348363</v>
       </c>
       <c r="N25">
-        <v>1.016875266043119</v>
+        <v>1.008394422814137</v>
       </c>
     </row>
   </sheetData>
